--- a/20160311 - 009/running_logs/logs.xlsx
+++ b/20160311 - 009/running_logs/logs.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="H2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
